--- a/doc/process/process.xlsx
+++ b/doc/process/process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuYujie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Smart-Camera\doc\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6609562F-E2E5-48D6-B57D-9BDFE1E77DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFEDA7-8BF6-4E22-998E-7CBFEA4DD721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="675" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,17 +29,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Meetings!$A$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -479,12 +476,6 @@
   <si>
     <t>Issue更新</t>
     <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片标注缺陷类别（最好找到新的类别）（后续可爬虫搜图片）</t>
-  </si>
-  <si>
-    <t>程序处理流程图；源代码及网页链接参考https://blog.csdn.net/weixin_44966641/article/details/122263759?ops_request_misc=%257B%2522request%255Fid%2522%253A%2522167509343916800192211003%2522%252C%2522scm%2522%253A%252220140713.130102334.pc%255Fall.%2522%257D&amp;request_id=167509343916800192211003&amp;biz_id=0&amp;utm_medium=distribute.pc_search_result.none-task-blog-2~all~first_rank_ecpm_v1~rank_v31_ecpm-1-122263759-null-null.142%5Ev71%5Epc_search_v2,201%5Ev4%5Eadd_ask&amp;utm_term=%E6%A0%91%E8%8E%93%E6%B4%BE%20%E6%91%84%E5%83%8F%E5%A4%B4%20c%2B%2B%20%E7%89%A9%E4%BD%93%E6%A3%80%E6%B5%8B&amp;spm=1018.2226.3001.4187</t>
   </si>
   <si>
     <t>useful infor.</t>
@@ -1526,6 +1517,14 @@
   <si>
     <t>youtube发布项目进展，ins发布一些团队活动</t>
   </si>
+  <si>
+    <t>程序处理流程图；源代码及网页链接参考https://blog.csdn.net/weixin_44966641/article/details/122263759?ops_request_misc=%257B%2522request%255Fid%2522%253A%2522167509343916800192211003%2522%252C%2522scm%2522%253A%252220140713.130102334.pc%255Fall.%2522%257D&amp;request_id=167509343916800192211003&amp;biz_id=0&amp;utm_medium=distribute.pc_search_result.none-task-blog-2~all~first_rank_ecpm_v1~rank_v31_ecpm-1-122263759-null-null.142%5Ev71%5Epc_search_v2,201%5Ev4%5Eadd_ask&amp;utm_term=%E6%A0%91%E8%8E%93%E6%B4%BE%20%E6%91%84%E5%83%8F%E5%A4%B4%20c%2B%2B%20%E7%89%A9%E4%BD%93%E6%A3%80%E6%B5%8B&amp;spm=1018.2226.3001.4187</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片标注缺陷类别（最好找到新的类别）（后续可爬虫搜图片）</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1534,7 +1533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,7 +2372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2675,15 +2674,15 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="23.73046875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.25">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.25">
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.25">
+    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2749,13 +2748,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2918,309 +2917,309 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="39.46484375" customWidth="1"/>
+    <col min="2" max="3" width="17.46484375" customWidth="1"/>
+    <col min="4" max="4" width="35.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:3" ht="13.9">
+    <row r="2" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="51" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="46" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="51" t="s">
-        <v>305</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="48"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B6" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="48"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52" t="s">
+      <c r="C6" s="52"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="52" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="52"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.9">
-      <c r="A7" s="47" t="s">
+      <c r="B8" s="49" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="47" t="s">
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A9" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="74" t="s">
         <v>311</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="49"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.9">
-      <c r="A9" s="47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="74" t="s">
-        <v>313</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
     </row>
-    <row r="11" spans="1:3" ht="13.9">
+    <row r="11" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A11" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A13" s="47" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
+    <row r="14" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.9">
-      <c r="A13" s="47" t="s">
+    <row r="15" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A15" s="47" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.9">
-      <c r="A14" s="47" t="s">
+    <row r="16" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A16" s="47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.9">
-      <c r="A15" s="47" t="s">
+    <row r="20" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.9">
-      <c r="A16" s="47" t="s">
+    <row r="21" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13.9">
-      <c r="A20" t="s">
+    <row r="26" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13.9">
-      <c r="A21" t="s">
+    <row r="27" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A27" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="13.9">
-      <c r="A26" t="s">
+    <row r="29" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="13.9">
-      <c r="A27" s="50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="13.9">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="13.9">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="13.9">
-      <c r="A30" t="s">
+    <row r="32" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A32" s="50" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="13.9">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="13.9">
-      <c r="A32" s="50" t="s">
+    <row r="34" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.9">
-      <c r="A33" t="s">
+    <row r="35" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.9">
-      <c r="A34" t="s">
+    <row r="36" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.9">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.9">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.9">
-      <c r="A37" t="s">
+    <row r="41" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A41" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A43" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B43" s="59" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="13.9">
-      <c r="A41" s="50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.9">
-      <c r="A42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="152.65">
-      <c r="A43" s="64" t="s">
+      <c r="C43" s="59"/>
+    </row>
+    <row r="44" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>334</v>
       </c>
-      <c r="B43" s="59" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A46" s="50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>335</v>
       </c>
-      <c r="C43" s="59"/>
-    </row>
-    <row r="44" spans="1:3" ht="13.9">
-      <c r="A44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13.9">
-      <c r="A46" s="50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.9">
-      <c r="A47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13.9">
-      <c r="A48" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1"/>
-    <row r="52" spans="1:6" ht="15" customHeight="1"/>
-    <row r="53" spans="1:6" ht="15" customHeight="1"/>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="90"/>
       <c r="B54" s="90"/>
       <c r="C54" s="90" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="D55" s="76" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="D55" s="76" t="s">
-        <v>342</v>
       </c>
       <c r="E55" s="76"/>
       <c r="F55" s="76" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="90"/>
       <c r="B56" s="90"/>
       <c r="C56" s="76"/>
       <c r="D56" s="76" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E56" s="76"/>
       <c r="F56" s="76" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57" s="77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D57" s="76"/>
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="90"/>
       <c r="B58" s="90"/>
       <c r="C58" s="76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D58" s="76"/>
       <c r="E58" s="76" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F58" s="76"/>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="90"/>
       <c r="B59" s="90"/>
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F59" s="90"/>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="90"/>
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
@@ -3228,36 +3227,36 @@
       <c r="E60" s="90"/>
       <c r="F60" s="90"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
       <c r="E61" s="90"/>
       <c r="F61" s="90"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B62" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="90"/>
       <c r="D62" s="90"/>
       <c r="E62" s="90"/>
       <c r="F62" s="90"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1"/>
-    <row r="64" spans="1:6" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -3279,171 +3278,171 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="101" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="102" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="B2" s="104" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="102" t="s">
+      <c r="C2" s="81"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="132" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B3" s="81" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="81"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="132" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>356</v>
-      </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="133"/>
       <c r="B4" s="81" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="102" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="102" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" s="81"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="102" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="102" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="81"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="102"/>
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="102"/>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="102"/>
       <c r="B11" s="86"/>
       <c r="C11" s="81"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="103" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="81"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="B14" s="81" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="106" t="s">
         <v>366</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="106" t="s">
-        <v>368</v>
       </c>
       <c r="B15" s="81"/>
       <c r="C15" s="81" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="130" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="130" t="s">
-        <v>369</v>
-      </c>
       <c r="B16" s="81" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="131"/>
       <c r="B17" s="81" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="81" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="81"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="81"/>
       <c r="B19" s="81"/>
       <c r="C19" s="81"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3468,18 +3467,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="39.375" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="40.46484375" customWidth="1"/>
+    <col min="6" max="6" width="39.3984375" customWidth="1"/>
+    <col min="7" max="7" width="26.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
         <v>51</v>
       </c>
@@ -3526,7 +3525,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="37" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>51</v>
       </c>
@@ -3594,7 +3593,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
         <v>51</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
@@ -3644,7 +3643,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>51</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>66</v>
       </c>
@@ -3688,7 +3687,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>66</v>
       </c>
@@ -3713,7 +3712,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="36"/>
       <c r="B11" s="61" t="s">
         <v>52</v>
@@ -3734,7 +3733,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
         <v>73</v>
       </c>
@@ -3783,7 +3782,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>73</v>
       </c>
@@ -3806,7 +3805,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
         <v>73</v>
       </c>
@@ -3831,7 +3830,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
@@ -3854,7 +3853,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -3873,7 +3872,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -3890,7 +3889,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -3960,7 +3959,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +3974,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -3990,7 +3989,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -4005,7 +4004,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -4020,7 +4019,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -4035,7 +4034,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="4">
@@ -4050,7 +4049,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="21" t="s">
@@ -4065,7 +4064,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -4076,7 +4075,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -4087,7 +4086,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -4098,7 +4097,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="33"/>
       <c r="C33" s="3"/>
@@ -4109,7 +4108,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="33"/>
       <c r="C34" s="3"/>
@@ -4120,7 +4119,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="33"/>
       <c r="C35" s="3"/>
@@ -4131,7 +4130,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="33"/>
       <c r="C36" s="3"/>
@@ -4142,7 +4141,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="33"/>
       <c r="C37" s="3"/>
@@ -4153,7 +4152,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="33"/>
       <c r="C38" s="3"/>
@@ -4164,7 +4163,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="33"/>
       <c r="C39" s="3"/>
@@ -4175,7 +4174,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -4186,7 +4185,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="33"/>
       <c r="C41" s="3"/>
@@ -4197,7 +4196,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="34"/>
       <c r="C42" s="1"/>
@@ -4208,7 +4207,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="34"/>
       <c r="C43" s="1"/>
@@ -4219,7 +4218,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="34"/>
       <c r="C44" s="1"/>
@@ -4277,21 +4276,21 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.9" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="50.5" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="50.46484375" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G1" t="s">
         <v>74</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.65" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:8" ht="41.65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="98">
         <v>44943</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.75" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:8" ht="27.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="98">
         <v>44949</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" collapsed="1">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A5" s="121">
         <v>44957</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="122"/>
       <c r="B6" s="124"/>
       <c r="C6" s="126"/>
@@ -4406,7 +4405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="122"/>
       <c r="B7" s="124"/>
       <c r="C7" s="126"/>
@@ -4421,7 +4420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="122"/>
       <c r="B8" s="124"/>
       <c r="C8" s="126"/>
@@ -4436,7 +4435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="122"/>
       <c r="B9" s="124"/>
       <c r="C9" s="126"/>
@@ -4451,7 +4450,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="122"/>
       <c r="B10" s="124"/>
       <c r="C10" s="126"/>
@@ -4466,7 +4465,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="122"/>
       <c r="B11" s="124"/>
       <c r="C11" s="126"/>
@@ -4483,7 +4482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="122"/>
       <c r="B12" s="124"/>
       <c r="C12" s="126"/>
@@ -4498,7 +4497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="122"/>
       <c r="B13" s="124"/>
       <c r="C13" s="126"/>
@@ -4515,7 +4514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="122"/>
       <c r="B14" s="124"/>
       <c r="C14" s="126"/>
@@ -4530,7 +4529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27.75">
+    <row r="15" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="127">
         <v>44964</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="55.5">
+    <row r="16" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A16" s="127"/>
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
@@ -4568,7 +4567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="127"/>
       <c r="B17" s="127"/>
       <c r="C17" s="127"/>
@@ -4585,7 +4584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="127"/>
       <c r="B18" s="127"/>
       <c r="C18" s="127"/>
@@ -4602,7 +4601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="127"/>
       <c r="B19" s="127"/>
       <c r="C19" s="127"/>
@@ -4619,14 +4618,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>128</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4676,388 +4675,388 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="79" customWidth="1"/>
     <col min="2" max="2" width="72" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="64.59765625" style="80" customWidth="1"/>
     <col min="4" max="4" width="36" style="79" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="81"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="D2" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81">
         <v>1</v>
       </c>
       <c r="B3" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="81">
         <v>2</v>
       </c>
       <c r="B4" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="81">
         <v>3</v>
       </c>
       <c r="B5" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="81">
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="86">
         <v>5</v>
       </c>
       <c r="B7" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="81">
         <v>6</v>
       </c>
       <c r="B8" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="81">
         <v>7</v>
       </c>
       <c r="B9" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="81">
         <v>8</v>
       </c>
       <c r="B10" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="81">
         <v>9</v>
       </c>
       <c r="B11" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="81">
         <v>10</v>
       </c>
       <c r="B12" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="81">
         <v>11</v>
       </c>
       <c r="B13" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="87">
         <v>12</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="81"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="81"/>
       <c r="B15" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="81"/>
       <c r="B16" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="81"/>
       <c r="B17" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="81"/>
       <c r="B18" s="81"/>
       <c r="C18" s="84"/>
       <c r="D18" s="81"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="88">
         <v>13</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="84"/>
       <c r="D19" s="81"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="81"/>
       <c r="B20" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="81"/>
       <c r="B21" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="81"/>
       <c r="B22" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="81"/>
       <c r="B23" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="81"/>
       <c r="B24" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="81"/>
       <c r="B25" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="81"/>
       <c r="B26" s="81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="81"/>
       <c r="B27" s="81"/>
       <c r="C27" s="89"/>
       <c r="D27" s="81"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="100"/>
       <c r="D28" s="86"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="81"/>
       <c r="B29" s="81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" s="81"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="81"/>
       <c r="B30" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D30" s="81"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="81"/>
       <c r="B31" s="81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" s="81"/>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="81"/>
       <c r="B32" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C32" s="99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D32" s="81"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="81"/>
       <c r="B33" s="81"/>
       <c r="C33" s="89"/>
@@ -5104,26 +5103,26 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>44</v>
@@ -5135,23 +5134,23 @@
         <v>52</v>
       </c>
       <c r="M1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="70"/>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A10" si="0">A2+1</f>
         <v>2</v>
@@ -5159,13 +5158,13 @@
       <c r="B3" s="12"/>
       <c r="C3" s="70"/>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5175,7 +5174,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5185,7 +5184,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5195,7 +5194,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5205,7 +5204,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5215,7 +5214,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5225,7 +5224,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5259,83 +5258,83 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="24.46484375" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="E1" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="69" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -5354,23 +5353,23 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5390,129 +5389,129 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="42.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="13" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="5.875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="5.125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="42.265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.86328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="31.73046875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.86328125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.86328125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="5.1328125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.46484375" style="13" customWidth="1"/>
     <col min="15" max="15" width="9" style="13"/>
-    <col min="16" max="16" width="5.125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="5.1328125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" style="13" customWidth="1"/>
     <col min="18" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.15">
+    <row r="1" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="I1" s="128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="71"/>
       <c r="B2" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="E2" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="F2" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="G2" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="J2" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="K2" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="B3" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="C3" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="D3" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="E3" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="F3" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="G3" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="H3" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="I3" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="J3" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="K3" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>250</v>
-      </c>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:14" ht="33.75" customHeight="1">
+    <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="55">
         <v>1</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>253</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -5522,18 +5521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="32.25" customHeight="1">
+    <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="55">
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>256</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>258</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
@@ -5547,26 +5546,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.9">
+    <row r="6" spans="1:14" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A6" s="55">
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>259</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>261</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -5576,25 +5575,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="77.25" customHeight="1">
+    <row r="7" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="55">
         <v>5</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="E7" s="55" t="s">
         <v>264</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>266</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="53"/>
@@ -5606,18 +5605,18 @@
       </c>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="32.25" customHeight="1">
+    <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="55">
         <v>6</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>268</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>270</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -5628,100 +5627,100 @@
       <c r="K8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="57" customHeight="1">
+    <row r="9" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="55">
         <v>7</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:14" ht="13.15"/>
-    <row r="11" spans="1:14" ht="13.15"/>
-    <row r="12" spans="1:14" ht="13.15"/>
-    <row r="13" spans="1:14" ht="13.15"/>
-    <row r="14" spans="1:14" ht="13.15"/>
-    <row r="15" spans="1:14" ht="13.15"/>
-    <row r="16" spans="1:14" ht="13.15"/>
-    <row r="17" spans="1:2" ht="13.15">
+    <row r="10" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:2" ht="13.15">
+    <row r="18" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>1</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>2</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.15"/>
-    <row r="22" spans="1:2" ht="13.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.15" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>1</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>2</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>3</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.15"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.15" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:K1"/>
@@ -5742,72 +5741,72 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="53.75" customWidth="1"/>
-    <col min="6" max="6" width="47.125" customWidth="1"/>
+    <col min="1" max="1" width="5.46484375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="53.73046875" customWidth="1"/>
+    <col min="6" max="6" width="47.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="40"/>
       <c r="B1" s="2"/>
       <c r="C1" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>284</v>
-      </c>
       <c r="F1" s="75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="76.5" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="42">
         <v>0.1</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="129" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="44">
         <v>0.25</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1">
+    </row>
+    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="43">
         <v>3</v>
       </c>
@@ -5817,13 +5816,13 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="103.5" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="43">
         <v>4</v>
       </c>
@@ -5832,33 +5831,33 @@
         <v>0.25</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="119.25" customHeight="1">
+    </row>
+    <row r="6" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="45">
         <v>0.15</v>
       </c>
       <c r="D6" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>299</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5871,12 +5870,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6012,19 +6008,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{936463B2-B782-4033-95C3-E7B31F02E473}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CE8E5-0C81-4C0D-9AAC-EE77A4B9FCE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774A36E2-E30B-4653-BEF2-B130C32EFAFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774A36E2-E30B-4653-BEF2-B130C32EFAFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="388971c7-f163-48c6-ac2a-a72ef385c425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CE8E5-0C81-4C0D-9AAC-EE77A4B9FCE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{936463B2-B782-4033-95C3-E7B31F02E473}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/process/process.xlsx
+++ b/doc/process/process.xlsx
@@ -1,50 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Smart-Camera\doc\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFEDA7-8BF6-4E22-998E-7CBFEA4DD721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7ACC96-F99B-4DA9-8136-317D2875C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="675" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="675" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="7" r:id="rId1"/>
     <sheet name="Plan" sheetId="1" r:id="rId2"/>
     <sheet name="Meetings" sheetId="10" r:id="rId3"/>
-    <sheet name="Shared Links" sheetId="5" r:id="rId4"/>
-    <sheet name="Questions List" sheetId="8" r:id="rId5"/>
-    <sheet name="Purchasing List" sheetId="3" r:id="rId6"/>
-    <sheet name="Requirement List" sheetId="4" state="hidden" r:id="rId7"/>
-    <sheet name="Designs" sheetId="2" state="hidden" r:id="rId8"/>
-    <sheet name="Continuous_Assessment" sheetId="6" r:id="rId9"/>
-    <sheet name="PPT框架" sheetId="9" r:id="rId10"/>
-    <sheet name="Ins &amp; YouTube脚本" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="Shared Links" sheetId="5" r:id="rId6"/>
+    <sheet name="Questions List" sheetId="8" r:id="rId7"/>
+    <sheet name="Purchasing List" sheetId="3" r:id="rId8"/>
+    <sheet name="Requirement List" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Designs" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="Continuous_Assessment" sheetId="6" r:id="rId11"/>
+    <sheet name="Continuous_Assessment_detail" sheetId="14" r:id="rId12"/>
+    <sheet name="PPT框架" sheetId="9" r:id="rId13"/>
+    <sheet name="Ins &amp; YouTube脚本" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Meetings!$A$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="502">
   <si>
     <t>Name</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -400,9 +393,6 @@
     <t>Wenjia</t>
   </si>
   <si>
-    <t>先做界面，2/7之前,(下一步调试界面--带相机去采图片)</t>
-  </si>
-  <si>
     <t>C++看驱动，openCV相机（moodle）</t>
   </si>
   <si>
@@ -420,10 +410,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>Wenjia, Yang</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ins宣传：
 </t>
@@ -432,7 +418,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -444,7 +430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,10 +441,6 @@
   </si>
   <si>
     <t>Yang</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>调YOLO V3 的pytorch 转darknet</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1066,10 +1048,6 @@
 3.in general guaranteeing high reliability and ease of maintenance.</t>
   </si>
   <si>
-    <t>最后提交的作品的25%的学分将基于代码的结构方式，
-即它被划分为允许数据封装的类，以故障安全的方式使用数据结构，以安全的方式接收数据和释放数据，并在总体上保证高可靠性和易于维护。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1091,11 +1069,6 @@
       </rPr>
       <t>preference to polling or other less suitable methods.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">最后提交的作品的25%的学分将评估软件的实时响应性以及如何实现的。
-这包括事件的处理是否通过唤醒线程来实现，以及一般采用事件驱动代码，使用定时器、信号、线程和/或内核空间中断驱动编码，而不是轮询或其他不太合适的方法。
-</t>
   </si>
   <si>
     <t xml:space="preserve"> the use of revision control, committing, branching, creating releases, testing and project planning. </t>
@@ -1110,13 +1083,6 @@
 6.Have unit tests been used?</t>
   </si>
   <si>
-    <t>最终提交的作品的25%的学分将基于修订控制、提交、分支、创建发布、测试和项目规划的使用。
-如果能体现出明确的分工和工作记录，则可获得分数。
-git是否被用作修订控制系统或只是用来"上载"代码？
-git是否被用来做修订，跟踪bug，是否有一个发布策略？
-是否使用了问题跟踪器系统？是否使用了单元测试？</t>
-  </si>
-  <si>
     <t>promotion</t>
   </si>
   <si>
@@ -1128,16 +1094,6 @@
 3.Has the project been advertised on social media and has it been picked up by online publications such as hackaday? 
 4.Has a social media account been created and has it created a buzz around it? 
 5.Has the project a license?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15%的分数用于作品的推广：
-该项目是否在github上得到了适当的展示，从而吸引了潜在用户的目光？
-硬体/软件的描述方式是否能让其他人复制它？
-该项目是否在社交媒体上做了广告，是否被在线出版物（如hack
-aday）所采纳？
-是否已经创建了社交媒体账户，并在其周围创造了一个嗡嗡声
-？该项目是否有许可证？
-</t>
   </si>
   <si>
     <t>Page1</t>
@@ -1525,19 +1481,3158 @@
     <t>图片标注缺陷类别（最好找到新的类别）（后续可爬虫搜图片）</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
+  <si>
+    <t>Kaiwen</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaiwen, Yang</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaiwen按照yang样式的QT编码</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOLO V3--&gt;YOLO V5</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>调YOLO V3 的pytorch 转darknet(失败，换V5)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做界面，2/7之前,(下一步调试界面--带相机去采图片)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派官方相机，周五之前发邮件给老师</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件，显示结果</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT美化</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动：驱动摄像头，驱动GPS</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">视觉物理检测 </t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuije</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenjia</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>win 有用，问助教</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最后提交的作品的25%的学分将基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>代码的结构方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+即它被划分为允许数据封装的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>，以故障安全的方式使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>数据结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>，以安全的方式接收数据和释放数据，并在总体上保证高可靠性和易于维护。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最后提交的作品的25%的学分将评估软件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>实时响应性以及如何实现的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+这包括事件的处理是否通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>唤醒线程来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>实现，以及一般采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>事件驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>代码，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>定时器、信号、线程和/或内核空间中断驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">编码，而不是轮询或其他不太合适的方法。
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最终提交的作品的25%的学分将基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>修订控制、提交、分支、创建发布、测试和项目规划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>的使用。
+如果能体现出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>明确的分工和工作记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>，则可获得分数。
+git是否被用作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>修订控制系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>或只是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>用来"上载"代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>？
+git是否被用来做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>修订，跟踪bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>，是否有一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>发布策略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>？
+是否使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>问题跟踪器系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>？是否使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>单元测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15%的分数用于作品的推广：
+该项目是否在github上得到了适当的展示，从而吸引了潜在用户的目光？
+硬体/软件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>是否能让其他人复制它？
+该项目是否在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>社交媒体上做了广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>，是否被在线出版物（如hack
+aday）所采纳？
+是否已经创建了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>社交媒体账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>，并在其周围创造了一个嗡嗡声
+？该项目是否有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>许可证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">？
+</t>
+    </r>
+  </si>
+  <si>
+    <t>A1, A2</t>
+  </si>
+  <si>
+    <t>A3, A4, A5</t>
+  </si>
+  <si>
+    <t>B1, B2, B3</t>
+  </si>
+  <si>
+    <t>C1, C2, C3</t>
+  </si>
+  <si>
+    <t>D1, D2, D3</t>
+  </si>
+  <si>
+    <t>E1, E2, E3</t>
+  </si>
+  <si>
+    <t>F, G, H</t>
+  </si>
+  <si>
+    <t>22, 21</t>
+  </si>
+  <si>
+    <t>20–18</t>
+  </si>
+  <si>
+    <t>17–15</t>
+  </si>
+  <si>
+    <t>14–12</t>
+  </si>
+  <si>
+    <t>11–9</t>
+  </si>
+  <si>
+    <t>8–6</t>
+  </si>
+  <si>
+    <t>5–0(maybe CR)</t>
+  </si>
+  <si>
+    <t>No classes used, use of global variables or class-less coding.</t>
+  </si>
+  <si>
+    <t>Realtime coding</t>
+  </si>
+  <si>
+    <t>Good use of revision control with detailed commits</t>
+  </si>
+  <si>
+    <t>Exemplary; could not have done better with the time and resources available</t>
+  </si>
+  <si>
+    <t>5. Documentation and PR</t>
+  </si>
+  <si>
+    <t>Nothing of substance (consider CR)</t>
+  </si>
+  <si>
+    <t>No discussion apparent</t>
+  </si>
+  <si>
+    <t>Worthy of publication</t>
+  </si>
+  <si>
+    <t>Well devised strategy covering all relevant channels and target audience.</t>
+  </si>
+  <si>
+    <t>No PR (consider CR)</t>
+  </si>
+  <si>
+    <t>No illustrations (consider CR)No video.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Classes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">have clear responsibilies, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">interfaces </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are segregated to be client specific, dependency inversion, obey the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liskov Substitution Principle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>documented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in an intutive way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some SOLID principles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">haven’t been applied </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and/or there are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> violations of the principle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Documentation has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">flaws which makes it hard to see </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if/how they have been applied.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serious flaws in the implementation of SOLID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and most principles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>haven’t been applied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. There is little mention in the documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>about the class choices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not clear whether SOLID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has been applied or not. Some aspects appear to be applied </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">but there is no direct evidence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which makes it clear.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">No application of SOLID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or little to mark at all.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encapsulation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of data in classes and safe use of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getters and setters and data management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear public interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are defined, the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data is private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> getters and setters </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide a safe interface to the client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Internal data structures </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">are efficient and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getters/setters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide fast acccess / compuation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Public interfaces are defined, the data is private and getters and setters provide a safe interface to the client. However,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some minor flaws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for example in terms of s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afety, timing and choice of internal data structures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data is encapsulated and the internal storage of data is appropriate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but there smaller issues with the getters / setters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, not checking for fault conditions or the internal data storage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be more efficient.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Significant problems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with encapsulation such as public variables and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no fault checking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Data storage/management is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inefficient.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Serious flaws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in encapsulation with public variables being accessed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> getter/setter interfaces and data is stored in not appropriate structures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No encapsulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the classes used but classes work by accessing variables and calling member functions. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">No use of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public / private variables &amp; members.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Failsafe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory management is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> completely leak free.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Memory management is leak free but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uses new/delete where it could be avoided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excessive use of new/delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where C++ instances and copy constructors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be used.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clearly there is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a lack of care of tidying up memory allocations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Serious flaws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of memory management with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eventual crash.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serious flaws in memory management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leading to out of memory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> memory management at all or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nothing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to mark.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assessment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>latencies</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the application context </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and appropriate design decisions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Production level realtime coding using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>threads/timers/signals and kernel interrupts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Professional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quantitative assessment and tolerances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leading to clear coding decisions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good quantitative assessment of the realtime demands leading to good coding decisions with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>small omissions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perfectly working prototype but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minor shortfalls in structure, doc or reliability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Correct assessment of requirements but</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> smaller shortcomings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resulting smaller issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in terms of coding decisions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solid realtime coding but with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smaller coding issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> causing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> small noticeable latencies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assessment of the latencies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partially wrong or not completely considered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the propose coding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>framework is not we</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll thought through.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Realtime coding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has shortcomings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in responsiveness, timing and sampling of signals.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Latencies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not seriously assessed and thus no justificatio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n of the realtime coding strategy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Significant shortcomings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in the realtime coding resulting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in long latencies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Almos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t no effort t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o research in into latencies and their knock on effect on coding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design shows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">major weaknesses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in realtime processing utilising delays / blocking code..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Achieved virtually </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nothing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(consider CR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Showed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> few or none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the skills expected of a graduate (consider CR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Revision </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>control</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Professional use revision control with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> regular commits, branching &amp; merging</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Professional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> testing approaches </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unit tests, issue tracking, fixing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High-quality planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, made excellent use of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">time and resources </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scenarios which unit tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use of revision control but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shortcomings in commits and development on master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good planning and use of resources with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only minor deficiencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Satisfactory testing and debugging but</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> smaller shortcomings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only work on master </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">without any safeguards </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shortcomings in commits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Satisfactory planning but</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> could clearly have made better</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use of resources.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Testing only in some cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but clearly some are left out.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only few commits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">on the master branch with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generic comments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poor planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and use of resources; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>did not always follow directions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Poor testing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">just in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">qualitative </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manner,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used github </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">only as an upload site </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with no collaborative effort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All over the place; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required continual direction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from supervisor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No explicit testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but just report of success.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Achieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> virtually nothin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g (consider CR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Did</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only what the supervisor told</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> him or her, if tha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Achieved </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>virtually nothin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g (consider CR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quality of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quality of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> argument</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Illustrations and video </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PR / social media strategy / release </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strategy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Professional level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of documentation comparable to other github prof projects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Could stay on github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> without further work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Perfectly devised strategy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on all channels and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> targeting the right audience</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Comprehensive coverage with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no significant omissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Well-chosen, illuminating and attractively formatted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> illustrations and excellent video</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arguments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>well presented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; results </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear and accessible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good coverage with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only minor omissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>critically assessed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Good i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>llustrations that enhance the report and an eye catching video</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PR strategy reflects a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good amateur project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has shortcomings fo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r a prof product</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PR OK for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a local group </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of friends and followers but has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shortcomings reaching beyond it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poor PR just involving </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a few last minute posts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on social media.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No clear strategy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PR strategy just</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> limited to github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Images only from WWW. The video has a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> poor quality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poor illustrations or mostly from WWW. Video film has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>low quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in terms of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>narrative and presentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Illustrations satisfactory but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be drawn or chosen better</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too few illustrations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Video could have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearer message.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discussion of results </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lacks insight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discussion of results </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at only a very low level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discussion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perfunctory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Covered much of the project but with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> significant omissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Major omissions; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>large parts of project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not covered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Only a little material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relevant to project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classes have clear responsibilies, interfaces are segregated to be client specific, dependency inversion, obey the Liskov Substitution Principle. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minor issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but still professional production standard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generally following the SOLID principles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but either </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one is violated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">documentation does not demonstrate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that they have been taken into consideration.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optimal choice of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> classes (SOLID)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.Structure of the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Realtime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> responsiveness</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revision</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> control and project </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reliability / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Bug fixing</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1545,7 +4640,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1578,7 +4673,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1604,14 +4699,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1619,7 +4714,7 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1709,7 +4804,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1744,14 +4839,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1772,20 +4867,70 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,8 +4979,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1980,12 +5143,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2010,7 +5199,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2253,6 +5442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2292,12 +5482,67 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2371,8 +5616,101 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584057</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E14073B-0DED-2AC9-0A47-B39E1DC5B9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="5765656" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>617267</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E468A524-8BF5-FBA4-3B4D-49543A6873C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="3700463"/>
+          <a:ext cx="14866667" cy="8904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2674,7 +6012,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.73046875" customWidth="1"/>
     <col min="2" max="2" width="21.73046875" customWidth="1"/>
@@ -2682,7 +6020,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="26.65">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +6048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="26.65">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +6062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="26.65">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +6074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2748,13 +6086,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="B6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -2771,7 +6109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2785,7 +6123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -2799,7 +6137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
       <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2808,7 +6146,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2817,7 +6155,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2826,7 +6164,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2835,7 +6173,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="G14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2844,7 +6182,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="G15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2853,7 +6191,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2862,7 +6200,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:9">
       <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2871,7 +6209,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:9">
       <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
@@ -2880,7 +6218,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:9">
       <c r="G19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2889,7 +6227,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:9">
       <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2910,14 +6248,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D132203E-C13C-468A-AC60-5E45B6E89045}">
+  <sheetPr>
+    <tabColor rgb="FFD9D9D9"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="42.265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.86328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="31.73046875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.86328125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.86328125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="5.1328125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.46484375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="9" style="13"/>
+    <col min="16" max="16" width="5.1328125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.15">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="I1" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+    </row>
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A4" s="55">
+        <v>1</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="13">
+        <f>I4*J4*K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="32.25" customHeight="1">
+      <c r="A5" s="55">
+        <v>3</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L7" si="0">I5*J5*K5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.9">
+      <c r="A6" s="55">
+        <v>4</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="77.25" customHeight="1">
+      <c r="A7" s="55">
+        <v>5</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" ht="32.25" customHeight="1">
+      <c r="A8" s="55">
+        <v>6</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" ht="57" customHeight="1">
+      <c r="A9" s="55">
+        <v>7</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="13.15"/>
+    <row r="11" spans="1:14" ht="13.15"/>
+    <row r="12" spans="1:14" ht="13.15"/>
+    <row r="13" spans="1:14" ht="13.15"/>
+    <row r="14" spans="1:14" ht="13.15"/>
+    <row r="15" spans="1:14" ht="13.15"/>
+    <row r="16" spans="1:14" ht="13.15"/>
+    <row r="17" spans="1:2" ht="13.15">
+      <c r="A17" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:2" ht="13.15">
+      <c r="A18" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.15">
+      <c r="A19" s="16">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.15">
+      <c r="A20" s="16">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.15"/>
+    <row r="22" spans="1:2" ht="13.15">
+      <c r="A22" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.15">
+      <c r="A23" s="16">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.15">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.15">
+      <c r="A25" s="16">
+        <v>3</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C404F4EF-AB87-4B4A-ADC3-3B6F89FC188C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.46484375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="5" max="5" width="53.73046875" customWidth="1"/>
+    <col min="6" max="6" width="47.1328125" customWidth="1"/>
+    <col min="8" max="9" width="9.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A1" s="40"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" customHeight="1">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="103.5" customHeight="1">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="130"/>
+      <c r="C5" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="134.65" customHeight="1">
+      <c r="A6" s="40">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4406BFE-1789-428A-846A-7E33822DDFDB}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.46484375" defaultRowHeight="89.35" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="24.46484375" style="137"/>
+    <col min="4" max="4" width="24.46484375" style="149"/>
+    <col min="5" max="16384" width="24.46484375" style="137"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.35" customHeight="1">
+      <c r="A1" s="142" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="141" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="138" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="138" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="138" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.35" customHeight="1">
+      <c r="A2" s="143"/>
+      <c r="B2" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="138" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="74.650000000000006" customHeight="1">
+      <c r="A3" s="141" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="145" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="136" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="89.35" customHeight="1">
+      <c r="A4" s="141" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="136" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="136" t="s">
+        <v>424</v>
+      </c>
+      <c r="H4" s="136" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A5" s="141" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="145" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>429</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="136" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" s="136" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="139" customFormat="1" ht="21.4" customHeight="1">
+      <c r="D6" s="148"/>
+    </row>
+    <row r="7" spans="1:8" s="139" customFormat="1" ht="24.85" customHeight="1">
+      <c r="A7" s="140" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="141" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="138" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="138" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="139" customFormat="1" ht="24.85" customHeight="1">
+      <c r="A8" s="140"/>
+      <c r="B8" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="141" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="53.75" customHeight="1">
+      <c r="A9" s="141" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="136" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="136" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="136" t="s">
+        <v>444</v>
+      </c>
+      <c r="H9" s="136" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="53.75" customHeight="1">
+      <c r="A10" s="141" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="145" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="136" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="136" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" s="136" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="14.35" customHeight="1">
+      <c r="A12" s="140" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="138" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="138" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="138" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.35" customHeight="1">
+      <c r="A13" s="140"/>
+      <c r="B13" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="141" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="44.35" customHeight="1">
+      <c r="A14" s="141" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="136" t="s">
+        <v>462</v>
+      </c>
+      <c r="H14" s="136" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="44.35" customHeight="1">
+      <c r="A15" s="141" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="136" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="136" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="145" t="s">
+        <v>454</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="136" t="s">
+        <v>460</v>
+      </c>
+      <c r="G15" s="136" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="136" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="44.35" customHeight="1">
+      <c r="A16" s="141" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" s="136" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="136" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="145" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="136" t="s">
+        <v>464</v>
+      </c>
+      <c r="H16" s="136" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.149999999999999" customHeight="1"/>
+    <row r="18" spans="1:8" ht="23.75" customHeight="1">
+      <c r="A18" s="140" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="144" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="141" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="144" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="144" t="s">
+        <v>393</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="23.75" customHeight="1">
+      <c r="A19" s="140"/>
+      <c r="B19" s="144" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="144" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="141" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="144" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="144" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" s="144" t="s">
+        <v>400</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42" customHeight="1">
+      <c r="A20" s="146" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="136" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>478</v>
+      </c>
+      <c r="E20" s="136" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="136" t="s">
+        <v>492</v>
+      </c>
+      <c r="G20" s="136" t="s">
+        <v>493</v>
+      </c>
+      <c r="H20" s="136" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42" customHeight="1">
+      <c r="A21" s="141" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="136" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" s="136" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>479</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="136" t="s">
+        <v>489</v>
+      </c>
+      <c r="G21" s="136" t="s">
+        <v>490</v>
+      </c>
+      <c r="H21" s="136" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A22" s="141" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="136" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>480</v>
+      </c>
+      <c r="E22" s="136" t="s">
+        <v>487</v>
+      </c>
+      <c r="F22" s="136" t="s">
+        <v>486</v>
+      </c>
+      <c r="G22" s="136" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" s="136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="42" customHeight="1">
+      <c r="A23" s="141" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="136" t="s">
+        <v>474</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>481</v>
+      </c>
+      <c r="E23" s="136" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="136" t="s">
+        <v>483</v>
+      </c>
+      <c r="G23" s="136" t="s">
+        <v>484</v>
+      </c>
+      <c r="H23" s="136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B22A7-FCD0-4A33-88D7-60B921EDC737}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="39.46484375" customWidth="1"/>
     <col min="2" max="3" width="17.46484375" customWidth="1"/>
@@ -2926,300 +7300,300 @@
     <col min="6" max="6" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="51" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="46" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="51" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="48"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="52"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.65">
+      <c r="A8" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="74" t="s">
         <v>304</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="48"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="52"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A7" s="47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="49"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A9" s="47" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="74" t="s">
-        <v>311</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
     </row>
-    <row r="11" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="52" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A13" s="47" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A14" s="47" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A15" s="47" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A16" s="47" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="50" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A27" s="50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="B37" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A32" s="50" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="153">
+      <c r="A43" s="64" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="B43" s="59" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="C43" s="59"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>330</v>
-      </c>
-      <c r="B37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A41" s="50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="152.65" x14ac:dyDescent="0.4">
-      <c r="A43" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" s="59"/>
-    </row>
-    <row r="44" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A46" s="50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="15" customHeight="1"/>
+    <row r="52" spans="1:6" ht="15" customHeight="1"/>
+    <row r="53" spans="1:6" ht="15" customHeight="1"/>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" s="90"/>
       <c r="B54" s="90"/>
       <c r="C54" s="90" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B55" s="77" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" s="76" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D55" s="76" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E55" s="76"/>
       <c r="F55" s="76" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="90"/>
       <c r="B56" s="90"/>
       <c r="C56" s="76"/>
       <c r="D56" s="76" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E56" s="76"/>
       <c r="F56" s="76" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B57" s="77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D57" s="76"/>
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="90"/>
       <c r="B58" s="90"/>
       <c r="C58" s="76" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D58" s="76"/>
       <c r="E58" s="76" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F58" s="76"/>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="90"/>
       <c r="B59" s="90"/>
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F59" s="90"/>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="90"/>
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
@@ -3227,36 +7601,36 @@
       <c r="E60" s="90"/>
       <c r="F60" s="90"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
       <c r="E61" s="90"/>
       <c r="F61" s="90"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="90" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B62" s="77" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C62" s="90"/>
       <c r="D62" s="90"/>
       <c r="E62" s="90"/>
       <c r="F62" s="90"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:6" ht="15" customHeight="1"/>
+    <row r="64" spans="1:6" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -3270,7 +7644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266A74BD-FD1C-4CE1-9557-DDE87A620917}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -3278,171 +7652,171 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="105" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="81"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="133" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="81"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="134"/>
+      <c r="B4" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="C4" s="81"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="102" t="s">
         <v>349</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="102" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="81"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="132" t="s">
-        <v>353</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="81"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="81"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
-        <v>356</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="102" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C6" s="81"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="102" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="102" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B8" s="81"/>
       <c r="C8" s="81"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="102"/>
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="102"/>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="102"/>
       <c r="B11" s="86"/>
       <c r="C11" s="81"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="105" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="103" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="81"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="102" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="106" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B15" s="81"/>
       <c r="C15" s="81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="130" t="s">
-        <v>367</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="131" t="s">
+        <v>360</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="131"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="132"/>
       <c r="B17" s="81" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="81" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="81"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19" s="81"/>
       <c r="B19" s="81"/>
       <c r="C19" s="81"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3467,7 +7841,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9" style="19"/>
     <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
@@ -3478,7 +7852,7 @@
     <col min="8" max="8" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
@@ -3504,7 +7878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="37" t="s">
         <v>51</v>
       </c>
@@ -3525,7 +7899,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -3548,7 +7922,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="37" t="s">
         <v>51</v>
       </c>
@@ -3570,7 +7944,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>51</v>
       </c>
@@ -3593,7 +7967,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="36" t="s">
         <v>51</v>
       </c>
@@ -3618,7 +7992,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
@@ -3643,7 +8017,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="36" t="s">
         <v>51</v>
       </c>
@@ -3664,7 +8038,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="36" t="s">
         <v>66</v>
       </c>
@@ -3687,7 +8061,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
       <c r="A10" s="36" t="s">
         <v>66</v>
       </c>
@@ -3712,7 +8086,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="A11" s="36"/>
       <c r="B11" s="61" t="s">
         <v>52</v>
@@ -3733,7 +8107,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="A12" s="36" t="s">
         <v>66</v>
       </c>
@@ -3758,7 +8132,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>73</v>
       </c>
@@ -3782,7 +8156,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="36" t="s">
         <v>73</v>
       </c>
@@ -3805,7 +8179,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="36" t="s">
         <v>73</v>
       </c>
@@ -3830,7 +8204,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
@@ -3853,7 +8227,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -3872,7 +8246,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -3889,7 +8263,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -3906,7 +8280,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +8297,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -3942,7 +8316,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -3959,7 +8333,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3974,7 +8348,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -3989,7 +8363,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -4004,7 +8378,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -4019,7 +8393,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -4034,7 +8408,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="33"/>
       <c r="C28" s="4">
@@ -4049,7 +8423,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="33"/>
       <c r="C29" s="21" t="s">
@@ -4064,7 +8438,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="33"/>
       <c r="C30" s="3"/>
@@ -4075,7 +8449,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="33"/>
       <c r="C31" s="3"/>
@@ -4086,7 +8460,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="33"/>
       <c r="C32" s="3"/>
@@ -4097,7 +8471,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" s="33"/>
       <c r="C33" s="3"/>
@@ -4108,7 +8482,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="33"/>
       <c r="C34" s="3"/>
@@ -4119,7 +8493,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="33"/>
       <c r="C35" s="3"/>
@@ -4130,7 +8504,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9">
       <c r="A36" s="3"/>
       <c r="B36" s="33"/>
       <c r="C36" s="3"/>
@@ -4141,7 +8515,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="33"/>
       <c r="C37" s="3"/>
@@ -4152,7 +8526,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" s="33"/>
       <c r="C38" s="3"/>
@@ -4163,7 +8537,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9">
       <c r="A39" s="3"/>
       <c r="B39" s="33"/>
       <c r="C39" s="3"/>
@@ -4174,7 +8548,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9">
       <c r="A40" s="3"/>
       <c r="B40" s="33"/>
       <c r="C40" s="3"/>
@@ -4185,7 +8559,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9">
       <c r="A41" s="3"/>
       <c r="B41" s="33"/>
       <c r="C41" s="3"/>
@@ -4196,7 +8570,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="34"/>
       <c r="C42" s="1"/>
@@ -4207,7 +8581,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="34"/>
       <c r="C43" s="1"/>
@@ -4218,7 +8592,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="34"/>
       <c r="C44" s="1"/>
@@ -4233,12 +8607,12 @@
   <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4274,13 +8648,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.46484375" customWidth="1"/>
     <col min="2" max="2" width="15.265625" customWidth="1"/>
@@ -4290,7 +8664,7 @@
     <col min="6" max="6" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="G1" t="s">
         <v>74</v>
       </c>
@@ -4298,7 +8672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -4321,7 +8695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="42.75" hidden="1" outlineLevel="1">
       <c r="A3" s="98">
         <v>44943</v>
       </c>
@@ -4344,7 +8718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="28.5" hidden="1" outlineLevel="1">
       <c r="A4" s="98">
         <v>44949</v>
       </c>
@@ -4367,14 +8741,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="121">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" collapsed="1">
+      <c r="A5" s="122">
         <v>44957</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="126">
         <v>4</v>
       </c>
       <c r="D5" s="97" t="s">
@@ -4390,10 +8764,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="122"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="126"/>
+    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="A6" s="123"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="109" t="s">
         <v>105</v>
       </c>
@@ -4405,10 +8779,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="122"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="126"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="123"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="111" t="s">
         <v>106</v>
       </c>
@@ -4420,10 +8794,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="122"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="126"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="111" t="s">
         <v>107</v>
       </c>
@@ -4435,10 +8809,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="122"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="126"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="123"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="111" t="s">
         <v>108</v>
       </c>
@@ -4450,10 +8824,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="122"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="123"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="111" t="s">
         <v>109</v>
       </c>
@@ -4465,10 +8839,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="122"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="126"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="123"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="97" t="s">
         <v>110</v>
       </c>
@@ -4482,10 +8856,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="126"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="123"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="97" t="s">
         <v>112</v>
       </c>
@@ -4497,15 +8871,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="122"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="123"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="108" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>368</v>
       </c>
       <c r="F13" s="93">
         <v>44964</v>
@@ -4514,34 +8888,34 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="123"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="113" t="s">
         <v>115</v>
-      </c>
-      <c r="E14" s="113" t="s">
-        <v>116</v>
       </c>
       <c r="F14" s="114"/>
       <c r="G14" s="120" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="127">
+    <row r="15" spans="1:8" ht="28.5">
+      <c r="A15" s="128">
         <v>44964</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="119" t="s">
-        <v>118</v>
-      </c>
       <c r="E15" s="116" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="F15" s="117">
         <v>44971</v>
@@ -4550,15 +8924,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
+    <row r="16" spans="1:8" ht="57">
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="117">
         <v>44971</v>
@@ -4567,15 +8941,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="116" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="E17" s="116" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F17" s="117">
         <v>44971</v>
@@ -4584,15 +8958,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="128"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="116" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E18" s="116" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="117">
         <v>44971</v>
@@ -4601,15 +8975,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="128"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="116" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E19" s="116" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="117">
         <v>44971</v>
@@ -4618,14 +8992,83 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="D20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="121" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="121" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="117">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="121" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>373</v>
+      <c r="E27" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="117">
+        <v>44977</v>
+      </c>
+      <c r="G27" s="95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4640,22 +9083,27 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"OPEN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G14">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
+  <conditionalFormatting sqref="G15:G19">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G19">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G6:G19" xr:uid="{B77035D3-32E8-4599-ABE4-4AB64DB380F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4 G6:G19 G27" xr:uid="{B77035D3-32E8-4599-ABE4-4AB64DB380F7}">
       <formula1>$AP$1:$AR$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{0F242AFF-7690-4CD7-8C9B-B9C3FC136D28}">
@@ -4668,6 +9116,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88028426-96BD-453B-B525-4EB4F3F6D962}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40515359-81AE-4399-AB5B-086750F94D2F}">
+  <dimension ref="J4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="10:10">
+      <c r="J4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40B2AA-621A-47BE-BD1F-3DDF4E7462AA}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -4675,7 +9159,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" style="79" customWidth="1"/>
     <col min="2" max="2" width="72" style="79" bestFit="1" customWidth="1"/>
@@ -4684,379 +9168,379 @@
     <col min="5" max="16384" width="9" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="81"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82" t="s">
+      <c r="D2" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="81">
         <v>1</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
       <c r="A4" s="81">
         <v>2</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="81">
         <v>3</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
       <c r="A6" s="81">
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
       <c r="A7" s="86">
         <v>5</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
       <c r="A8" s="81">
         <v>6</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
       <c r="A9" s="81">
         <v>7</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
       <c r="A10" s="81">
         <v>8</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
       <c r="A11" s="81">
         <v>9</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
       <c r="A12" s="81">
         <v>10</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="81">
         <v>11</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="87">
         <v>12</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="81"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="81"/>
       <c r="B15" s="81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="A16" s="81"/>
       <c r="B16" s="81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="81"/>
       <c r="B17" s="81" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="81"/>
       <c r="B18" s="81"/>
       <c r="C18" s="84"/>
       <c r="D18" s="81"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="88">
         <v>13</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C19" s="84"/>
       <c r="D19" s="81"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" s="81"/>
       <c r="B20" s="81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
       <c r="A21" s="81"/>
       <c r="B21" s="81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
       <c r="A22" s="81"/>
       <c r="B22" s="81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
       <c r="A23" s="81"/>
       <c r="B23" s="81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
       <c r="A24" s="81"/>
       <c r="B24" s="81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
       <c r="A25" s="81"/>
       <c r="B25" s="81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
       <c r="A26" s="81"/>
       <c r="B26" s="81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
       <c r="A27" s="81"/>
       <c r="B27" s="81"/>
       <c r="C27" s="89"/>
       <c r="D27" s="81"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="100"/>
       <c r="D28" s="86"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
       <c r="A29" s="81"/>
       <c r="B29" s="81" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D29" s="81"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
       <c r="A30" s="81"/>
       <c r="B30" s="81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D30" s="81"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
       <c r="A31" s="81"/>
       <c r="B31" s="81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D31" s="81"/>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
       <c r="A32" s="81"/>
       <c r="B32" s="81" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C32" s="99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D32" s="81"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" s="81"/>
       <c r="B33" s="81"/>
       <c r="C33" s="89"/>
@@ -5095,7 +9579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9D52B-1104-4B41-BE76-5997A41F57B8}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -5103,7 +9587,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
@@ -5111,18 +9595,18 @@
     <col min="5" max="5" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>44</v>
@@ -5134,23 +9618,23 @@
         <v>52</v>
       </c>
       <c r="M1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="70"/>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A10" si="0">A2+1</f>
         <v>2</v>
@@ -5158,13 +9642,13 @@
       <c r="B3" s="12"/>
       <c r="C3" s="70"/>
       <c r="D3" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5174,7 +9658,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5184,7 +9668,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5194,7 +9678,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5204,7 +9688,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5214,7 +9698,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5224,7 +9708,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5250,15 +9734,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92336306-169D-4A3D-A752-CEE1EEE2093F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.46484375" customWidth="1"/>
     <col min="2" max="2" width="23.1328125" customWidth="1"/>
@@ -5267,74 +9751,73 @@
     <col min="5" max="5" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="69" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="99" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -5345,7 +9828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC53B607-126F-4667-95A9-B02CA5D3D240}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -5353,23 +9836,23 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5378,504 +9861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D132203E-C13C-468A-AC60-5E45B6E89045}">
-  <sheetPr>
-    <tabColor rgb="FFD9D9D9"/>
-  </sheetPr>
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="10.3984375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.73046875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="42.265625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27.86328125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="31.73046875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.46484375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="18.46484375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="18.86328125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="5.86328125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="5.1328125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.46484375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="9" style="13"/>
-    <col min="16" max="16" width="5.1328125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="11.86328125" style="13" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="I1" s="128" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-    </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="55">
-        <v>1</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="13">
-        <f>I4*J4*K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
-        <v>3</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="13">
-        <f t="shared" ref="L5:L7" si="0">I5*J5*K5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.9" x14ac:dyDescent="0.45">
-      <c r="A6" s="55">
-        <v>4</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
-        <v>5</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="55">
-        <v>6</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="55">
-        <v>7</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:14" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="16">
-        <v>1</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="16">
-        <v>2</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.15" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="16">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="16">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="16">
-        <v>3</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.15" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C404F4EF-AB87-4B4A-ADC3-3B6F89FC188C}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.46484375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="53.73046875" customWidth="1"/>
-    <col min="6" max="6" width="47.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="40"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43">
-        <v>2</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43">
-        <v>3</v>
-      </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43">
-        <v>4</v>
-      </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40">
-        <v>5</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:B5"/>
-  </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2AB421C9110224AA02A18D8D10E16F5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbb88699c37bb8b6255bc79f16f55f64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="388971c7-f163-48c6-ac2a-a72ef385c425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3a4148570fc6928027d9d3847b5d9e0" ns2:_="">
     <xsd:import namespace="388971c7-f163-48c6-ac2a-a72ef385c425"/>
@@ -6007,7 +9993,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6016,16 +10002,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CE8E5-0C81-4C0D-9AAC-EE77A4B9FCE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774A36E2-E30B-4653-BEF2-B130C32EFAFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6043,10 +10026,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{936463B2-B782-4033-95C3-E7B31F02E473}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CE8E5-0C81-4C0D-9AAC-EE77A4B9FCE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/process/process.xlsx
+++ b/doc/process/process.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Smart-Camera\doc\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Roads-Damages-Detector\doc\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7ACC96-F99B-4DA9-8136-317D2875C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03E39D-6A65-4DD0-BF16-BD5D9CD2B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="675" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="831" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="521">
   <si>
     <t>Name</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -4619,6 +4619,63 @@
       </rPr>
       <t xml:space="preserve"> / Bug fixing</t>
     </r>
+  </si>
+  <si>
+    <t>分支合并策略--readme</t>
+  </si>
+  <si>
+    <t>kaiwen</t>
+  </si>
+  <si>
+    <t>wenjia</t>
+  </si>
+  <si>
+    <t>项目计划</t>
+  </si>
+  <si>
+    <t>kaiwen、wenjia,yujie</t>
+  </si>
+  <si>
+    <t>BUG及修复结果</t>
+  </si>
+  <si>
+    <t>实时性继续调试</t>
+  </si>
+  <si>
+    <t>YOLO V5  \YOLO V5 lite 操作过程</t>
+  </si>
+  <si>
+    <t>树莓派1 及电脑性能测试</t>
+  </si>
+  <si>
+    <t>树莓派4B 及电脑性能测试</t>
+  </si>
+  <si>
+    <t>UI prd</t>
+  </si>
+  <si>
+    <t>liuyang</t>
+  </si>
+  <si>
+    <t>测试文档</t>
+  </si>
+  <si>
+    <t>测试报告：测试步骤、测试结果截图</t>
+  </si>
+  <si>
+    <t>cmake 编译流程、</t>
+  </si>
+  <si>
+    <t>程序设计（UML图）、结构、架构</t>
+  </si>
+  <si>
+    <t>硬件文档：GPS文档、相机、树莓派</t>
+  </si>
+  <si>
+    <t>yujie</t>
+  </si>
+  <si>
+    <t>kaiwen\liuyang</t>
   </si>
 </sst>
 </file>
@@ -5174,7 +5231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5443,6 +5500,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5470,6 +5563,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5482,55 +5584,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -5710,7 +5770,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6285,11 +6345,11 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
     </row>
     <row r="2" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="71"/>
@@ -6606,8 +6666,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6649,10 +6709,10 @@
       <c r="D2" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="122" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6660,7 +6720,7 @@
       <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="142" t="s">
         <v>284</v>
       </c>
       <c r="C3" s="44">
@@ -6680,7 +6740,7 @@
       <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="130"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="44">
         <v>0.25</v>
       </c>
@@ -6696,7 +6756,7 @@
       <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="130"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="44">
         <v>0.25</v>
       </c>
@@ -6744,531 +6804,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4406BFE-1789-428A-846A-7E33822DDFDB}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.46484375" defaultRowHeight="89.35" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="24.46484375" style="137"/>
-    <col min="4" max="4" width="24.46484375" style="149"/>
-    <col min="5" max="16384" width="24.46484375" style="137"/>
+    <col min="1" max="3" width="24.46484375" style="124"/>
+    <col min="4" max="4" width="24.46484375" style="133"/>
+    <col min="5" max="16384" width="24.46484375" style="124"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.35" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="125" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="127" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="125" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="125" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="125" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.35" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="138" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="125" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="125" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="127" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="125" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="74.650000000000006" customHeight="1">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="127" t="s">
         <v>496</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="123" t="s">
         <v>413</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="123" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="129" t="s">
         <v>495</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="123" t="s">
         <v>414</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="123" t="s">
         <v>415</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="123" t="s">
         <v>416</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="123" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="89.35" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="127" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="123" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="129" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="123" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="123" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="123" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="127" t="s">
         <v>425</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="123" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="123" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="129" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="123" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="123" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="123" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="139" customFormat="1" ht="21.4" customHeight="1">
-      <c r="D6" s="148"/>
-    </row>
-    <row r="7" spans="1:8" s="139" customFormat="1" ht="24.85" customHeight="1">
-      <c r="A7" s="140" t="s">
+    <row r="6" spans="1:8" s="126" customFormat="1" ht="21.4" customHeight="1">
+      <c r="D6" s="132"/>
+    </row>
+    <row r="7" spans="1:8" s="126" customFormat="1" ht="24.85" customHeight="1">
+      <c r="A7" s="145" t="s">
         <v>498</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="125" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="127" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="125" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="125" t="s">
         <v>393</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="125" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="139" customFormat="1" ht="24.85" customHeight="1">
-      <c r="A8" s="140"/>
-      <c r="B8" s="138" t="s">
+    <row r="8" spans="1:8" s="126" customFormat="1" ht="24.85" customHeight="1">
+      <c r="A8" s="145"/>
+      <c r="B8" s="125" t="s">
         <v>395</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="125" t="s">
         <v>396</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="127" t="s">
         <v>397</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="H8" s="138" t="s">
+      <c r="H8" s="125" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="53.75" customHeight="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="127" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="123" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="123" t="s">
         <v>436</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="129" t="s">
         <v>438</v>
       </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="123" t="s">
         <v>440</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="123" t="s">
         <v>442</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="123" t="s">
         <v>444</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="123" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="53.75" customHeight="1">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="127" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="123" t="s">
         <v>434</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="123" t="s">
         <v>437</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="129" t="s">
         <v>439</v>
       </c>
-      <c r="E10" s="136" t="s">
+      <c r="E10" s="123" t="s">
         <v>441</v>
       </c>
-      <c r="F10" s="136" t="s">
+      <c r="F10" s="123" t="s">
         <v>443</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="123" t="s">
         <v>445</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="123" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.75" customHeight="1"/>
     <row r="12" spans="1:8" ht="14.35" customHeight="1">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="145" t="s">
         <v>499</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="125" t="s">
         <v>389</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="127" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="125" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="125" t="s">
         <v>393</v>
       </c>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="125" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.35" customHeight="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="138" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="125" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="125" t="s">
         <v>396</v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="127" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="F13" s="138" t="s">
+      <c r="F13" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="125" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="44.35" customHeight="1">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="123" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="123" t="s">
         <v>404</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="129" t="s">
         <v>453</v>
       </c>
-      <c r="E14" s="136" t="s">
+      <c r="E14" s="123" t="s">
         <v>456</v>
       </c>
-      <c r="F14" s="136" t="s">
+      <c r="F14" s="123" t="s">
         <v>459</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="123" t="s">
         <v>462</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="123" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="44.35" customHeight="1">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="127" t="s">
         <v>500</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="123" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="123" t="s">
         <v>451</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="129" t="s">
         <v>454</v>
       </c>
-      <c r="E15" s="136" t="s">
+      <c r="E15" s="123" t="s">
         <v>457</v>
       </c>
-      <c r="F15" s="136" t="s">
+      <c r="F15" s="123" t="s">
         <v>460</v>
       </c>
-      <c r="G15" s="136" t="s">
+      <c r="G15" s="123" t="s">
         <v>463</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="123" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="44.35" customHeight="1">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="127" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="123" t="s">
         <v>450</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="123" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="129" t="s">
         <v>455</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="E16" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="F16" s="136" t="s">
+      <c r="F16" s="123" t="s">
         <v>461</v>
       </c>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="123" t="s">
         <v>464</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="123" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.149999999999999" customHeight="1"/>
     <row r="18" spans="1:8" ht="23.75" customHeight="1">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="145" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="128" t="s">
         <v>388</v>
       </c>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="128" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="127" t="s">
         <v>390</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="128" t="s">
         <v>391</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="128" t="s">
         <v>392</v>
       </c>
-      <c r="G18" s="144" t="s">
+      <c r="G18" s="128" t="s">
         <v>393</v>
       </c>
-      <c r="H18" s="144" t="s">
+      <c r="H18" s="128" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23.75" customHeight="1">
-      <c r="A19" s="140"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="145"/>
+      <c r="B19" s="128" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="128" t="s">
         <v>396</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="127" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="F19" s="144" t="s">
+      <c r="F19" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="144" t="s">
+      <c r="G19" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="H19" s="144" t="s">
+      <c r="H19" s="128" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="42" customHeight="1">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="130" t="s">
         <v>468</v>
       </c>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="123" t="s">
         <v>472</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="123" t="s">
         <v>475</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="129" t="s">
         <v>478</v>
       </c>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="123" t="s">
         <v>491</v>
       </c>
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="123" t="s">
         <v>492</v>
       </c>
-      <c r="G20" s="136" t="s">
+      <c r="G20" s="123" t="s">
         <v>493</v>
       </c>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="123" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1">
-      <c r="A21" s="141" t="s">
+      <c r="A21" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="129" t="s">
         <v>479</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="123" t="s">
         <v>488</v>
       </c>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="123" t="s">
         <v>489</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="123" t="s">
         <v>490</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="123" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="127" t="s">
         <v>470</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="131" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="145" t="s">
+      <c r="D22" s="129" t="s">
         <v>480</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="123" t="s">
         <v>487</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="123" t="s">
         <v>486</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="123" t="s">
         <v>485</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="123" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="42" customHeight="1">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="127" t="s">
         <v>471</v>
       </c>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="123" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="129" t="s">
         <v>481</v>
       </c>
-      <c r="E23" s="136" t="s">
+      <c r="E23" s="123" t="s">
         <v>482</v>
       </c>
-      <c r="F23" s="136" t="s">
+      <c r="F23" s="123" t="s">
         <v>483</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="123" t="s">
         <v>484</v>
       </c>
-      <c r="H23" s="136" t="s">
+      <c r="H23" s="123" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7680,7 +7740,7 @@
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="148" t="s">
         <v>346</v>
       </c>
       <c r="B3" s="81" t="s">
@@ -7689,7 +7749,7 @@
       <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="134"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="81" t="s">
         <v>348</v>
       </c>
@@ -7778,7 +7838,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="146" t="s">
         <v>360</v>
       </c>
       <c r="B16" s="81" t="s">
@@ -7789,7 +7849,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="132"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="81" t="s">
         <v>362</v>
       </c>
@@ -8742,13 +8802,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" collapsed="1">
-      <c r="A5" s="122">
+      <c r="A5" s="134">
         <v>44957</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="138">
         <v>4</v>
       </c>
       <c r="D5" s="97" t="s">
@@ -8765,9 +8825,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="127"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="109" t="s">
         <v>105</v>
       </c>
@@ -8780,9 +8840,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="123"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="127"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="111" t="s">
         <v>106</v>
       </c>
@@ -8795,9 +8855,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="123"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="127"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="111" t="s">
         <v>107</v>
       </c>
@@ -8810,9 +8870,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="123"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="127"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="111" t="s">
         <v>108</v>
       </c>
@@ -8825,9 +8885,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="123"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="127"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="111" t="s">
         <v>109</v>
       </c>
@@ -8840,9 +8900,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="123"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="127"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="97" t="s">
         <v>110</v>
       </c>
@@ -8857,9 +8917,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="123"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="127"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="97" t="s">
         <v>112</v>
       </c>
@@ -8872,9 +8932,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="123"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="127"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="108" t="s">
         <v>373</v>
       </c>
@@ -8889,9 +8949,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="123"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="127"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="112" t="s">
         <v>114</v>
       </c>
@@ -8904,13 +8964,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="128">
+      <c r="A15" s="140">
         <v>44964</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="119" t="s">
         <v>117</v>
       </c>
@@ -8925,9 +8985,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="57">
-      <c r="A16" s="128"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
@@ -8942,9 +9002,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="116" t="s">
         <v>372</v>
       </c>
@@ -8959,9 +9019,9 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="116" t="s">
         <v>121</v>
       </c>
@@ -8976,9 +9036,9 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="128"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="116" t="s">
         <v>123</v>
       </c>
@@ -9581,18 +9641,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9D52B-1104-4B41-BE76-5997A41F57B8}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9718,7 +9779,103 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
+    <row r="12" spans="1:13">
+      <c r="D12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" t="s">
+        <v>509</v>
+      </c>
+      <c r="E16" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="150" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E17" t="s">
+        <v>504</v>
+      </c>
+      <c r="F17" s="150"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="D18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F18" s="150"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="D19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="D22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="D23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="D25" t="s">
+        <v>514</v>
+      </c>
+      <c r="E25" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F16:F18"/>
+  </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="E1:E10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -9994,18 +10151,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10027,18 +10184,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{936463B2-B782-4033-95C3-E7B31F02E473}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CE8E5-0C81-4C0D-9AAC-EE77A4B9FCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{936463B2-B782-4033-95C3-E7B31F02E473}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>